--- a/Code/Results/Cases/Case_1_190/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_190/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9579485478811424</v>
+        <v>1.004727430580851</v>
       </c>
       <c r="D2">
-        <v>1.03701617855195</v>
+        <v>1.030263256528299</v>
       </c>
       <c r="E2">
-        <v>0.9700542965998483</v>
+        <v>1.007762213487518</v>
       </c>
       <c r="F2">
-        <v>0.9324254259529805</v>
+        <v>1.002867825820396</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04966493641165</v>
+        <v>1.02955528997503</v>
       </c>
       <c r="J2">
-        <v>0.9814641205734456</v>
+        <v>1.010014891386621</v>
       </c>
       <c r="K2">
-        <v>1.047982825807516</v>
+        <v>1.033074774661431</v>
       </c>
       <c r="L2">
-        <v>0.9819472117454191</v>
+        <v>1.010640516912302</v>
       </c>
       <c r="M2">
-        <v>0.9449139967932566</v>
+        <v>1.005761089072324</v>
       </c>
       <c r="N2">
-        <v>0.9975761866928806</v>
+        <v>1.007465362557762</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9633269577642326</v>
+        <v>1.005822002272901</v>
       </c>
       <c r="D3">
-        <v>1.038724435454634</v>
+        <v>1.030606612076188</v>
       </c>
       <c r="E3">
-        <v>0.9743752803874034</v>
+        <v>1.008694518224989</v>
       </c>
       <c r="F3">
-        <v>0.9407736036627249</v>
+        <v>1.004617363073518</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049990288268154</v>
+        <v>1.029546965970127</v>
       </c>
       <c r="J3">
-        <v>0.9848698693453306</v>
+        <v>1.010738946473879</v>
       </c>
       <c r="K3">
-        <v>1.04888469248286</v>
+        <v>1.033227698754684</v>
       </c>
       <c r="L3">
-        <v>0.9853468848820134</v>
+        <v>1.01137594559515</v>
       </c>
       <c r="M3">
-        <v>0.9522249147171994</v>
+        <v>1.007310333110168</v>
       </c>
       <c r="N3">
-        <v>0.9987662937553543</v>
+        <v>1.007712251451404</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.966718024260288</v>
+        <v>1.006530092566826</v>
       </c>
       <c r="D4">
-        <v>1.039807736879433</v>
+        <v>1.030828240658591</v>
       </c>
       <c r="E4">
-        <v>0.9771064133042652</v>
+        <v>1.009297975763954</v>
       </c>
       <c r="F4">
-        <v>0.9460168870968086</v>
+        <v>1.005748917304874</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050183150691575</v>
+        <v>1.029539753632458</v>
       </c>
       <c r="J4">
-        <v>0.9870131806027862</v>
+        <v>1.01120681070201</v>
       </c>
       <c r="K4">
-        <v>1.049448332132398</v>
+        <v>1.0333253549493</v>
       </c>
       <c r="L4">
-        <v>0.9874892292024849</v>
+        <v>1.011851397160795</v>
       </c>
       <c r="M4">
-        <v>0.9568136768748502</v>
+        <v>1.008311870664742</v>
       </c>
       <c r="N4">
-        <v>0.9995144411480156</v>
+        <v>1.007871580600961</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9681233544498589</v>
+        <v>1.006827735276856</v>
       </c>
       <c r="D5">
-        <v>1.040257915130859</v>
+        <v>1.030921280219724</v>
       </c>
       <c r="E5">
-        <v>0.9782398134791518</v>
+        <v>1.009551717083347</v>
       </c>
       <c r="F5">
-        <v>0.94818554991034</v>
+        <v>1.006224509550559</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050260008368905</v>
+        <v>1.029536283262584</v>
       </c>
       <c r="J5">
-        <v>0.9879004498249212</v>
+        <v>1.011403347421962</v>
       </c>
       <c r="K5">
-        <v>1.049680534409773</v>
+        <v>1.033366097555123</v>
       </c>
       <c r="L5">
-        <v>0.9883767614277499</v>
+        <v>1.012051177842443</v>
       </c>
       <c r="M5">
-        <v>0.958710846261091</v>
+        <v>1.008732703681971</v>
       </c>
       <c r="N5">
-        <v>0.9998239402806027</v>
+        <v>1.007938461346076</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9683581560840536</v>
+        <v>1.006877708613519</v>
       </c>
       <c r="D6">
-        <v>1.040333195749662</v>
+        <v>1.030936894093018</v>
       </c>
       <c r="E6">
-        <v>0.9784292711889748</v>
+        <v>1.00959432420678</v>
       </c>
       <c r="F6">
-        <v>0.9485476538046039</v>
+        <v>1.006304357228488</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050272665724133</v>
+        <v>1.029535674837201</v>
       </c>
       <c r="J6">
-        <v>0.9880486372856183</v>
+        <v>1.011436337855459</v>
       </c>
       <c r="K6">
-        <v>1.049719244074493</v>
+        <v>1.033372920065691</v>
       </c>
       <c r="L6">
-        <v>0.9885250312108025</v>
+        <v>1.012084716123469</v>
       </c>
       <c r="M6">
-        <v>0.9590275715264019</v>
+        <v>1.008803351132689</v>
       </c>
       <c r="N6">
-        <v>0.9998756183614798</v>
+        <v>1.007949684992606</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9667368806688124</v>
+        <v>1.006534069831341</v>
       </c>
       <c r="D7">
-        <v>1.039813772728468</v>
+        <v>1.030829484383945</v>
       </c>
       <c r="E7">
-        <v>0.9771216149270425</v>
+        <v>1.009301366078558</v>
       </c>
       <c r="F7">
-        <v>0.9460460018697399</v>
+        <v>1.005755272624287</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050184194246958</v>
+        <v>1.029539708984861</v>
       </c>
       <c r="J7">
-        <v>0.987025089606449</v>
+        <v>1.01120943743596</v>
       </c>
       <c r="K7">
-        <v>1.049451453476574</v>
+        <v>1.033325900582478</v>
       </c>
       <c r="L7">
-        <v>0.987501139139946</v>
+        <v>1.011854067027955</v>
       </c>
       <c r="M7">
-        <v>0.9568391499295099</v>
+        <v>1.008317494683953</v>
       </c>
       <c r="N7">
-        <v>0.9995185961346695</v>
+        <v>1.007872474662037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9597853264300785</v>
+        <v>1.005097383039582</v>
       </c>
       <c r="D8">
-        <v>1.03759808224953</v>
+        <v>1.030379406564799</v>
       </c>
       <c r="E8">
-        <v>0.9715284891839455</v>
+        <v>1.008077250859506</v>
       </c>
       <c r="F8">
-        <v>0.9352810384625575</v>
+        <v>1.003459202297312</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049778551927297</v>
+        <v>1.02955285428455</v>
       </c>
       <c r="J8">
-        <v>0.9826280558903956</v>
+        <v>1.010259724350782</v>
       </c>
       <c r="K8">
-        <v>1.048291754076944</v>
+        <v>1.033126723317437</v>
       </c>
       <c r="L8">
-        <v>0.9831084545181819</v>
+        <v>1.010889146272544</v>
       </c>
       <c r="M8">
-        <v>0.9474154113007931</v>
+        <v>1.006284860424486</v>
       </c>
       <c r="N8">
-        <v>0.9979830733841405</v>
+        <v>1.00754888794167</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9468007869254523</v>
+        <v>1.002564339795591</v>
       </c>
       <c r="D9">
-        <v>1.033523028001089</v>
+        <v>1.029582245551909</v>
       </c>
       <c r="E9">
-        <v>0.9611390090764109</v>
+        <v>1.005921629741186</v>
       </c>
       <c r="F9">
-        <v>0.9149797869050242</v>
+        <v>0.9994088644037524</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048928137280377</v>
+        <v>1.029562081003761</v>
       </c>
       <c r="J9">
-        <v>0.9743828972372879</v>
+        <v>1.008581170752679</v>
       </c>
       <c r="K9">
-        <v>1.046094662550543</v>
+        <v>1.032765901988229</v>
       </c>
       <c r="L9">
-        <v>0.974895700299456</v>
+        <v>1.009185553564632</v>
       </c>
       <c r="M9">
-        <v>0.9296213473758322</v>
+        <v>1.002695617146474</v>
       </c>
       <c r="N9">
-        <v>0.9950980039690246</v>
+        <v>1.00697541805312</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9375684830163677</v>
+        <v>1.000874535888566</v>
       </c>
       <c r="D10">
-        <v>1.030688880812372</v>
+        <v>1.029048220613477</v>
       </c>
       <c r="E10">
-        <v>0.9537959726989974</v>
+        <v>1.004485421829613</v>
       </c>
       <c r="F10">
-        <v>0.9003622216808118</v>
+        <v>0.9967050907846262</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.04826943707582</v>
+        <v>1.029558927936093</v>
       </c>
       <c r="J10">
-        <v>0.9684984444397379</v>
+        <v>1.007458639509106</v>
       </c>
       <c r="K10">
-        <v>1.044525297024521</v>
+        <v>1.032518842347417</v>
       </c>
       <c r="L10">
-        <v>0.9690527632806326</v>
+        <v>1.008047530887223</v>
       </c>
       <c r="M10">
-        <v>0.9167980599729704</v>
+        <v>1.000297222101511</v>
       </c>
       <c r="N10">
-        <v>0.9930363614252332</v>
+        <v>1.006590881253872</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9334129918157617</v>
+        <v>1.000142534010965</v>
       </c>
       <c r="D11">
-        <v>1.029433179004557</v>
+        <v>1.028816400681362</v>
       </c>
       <c r="E11">
-        <v>0.9505025091571975</v>
+        <v>1.003863715011103</v>
       </c>
       <c r="F11">
-        <v>0.893725440921452</v>
+        <v>0.995533349279506</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047962298172288</v>
+        <v>1.029555369739793</v>
       </c>
       <c r="J11">
-        <v>0.9658444990194033</v>
+        <v>1.006971717307854</v>
       </c>
       <c r="K11">
-        <v>1.04382058515441</v>
+        <v>1.032410340936442</v>
       </c>
       <c r="L11">
-        <v>0.9664224037695216</v>
+        <v>1.007554189785336</v>
       </c>
       <c r="M11">
-        <v>0.9109744503736821</v>
+        <v>0.999257251006217</v>
       </c>
       <c r="N11">
-        <v>0.9921062302914592</v>
+        <v>1.006423839134035</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9318436687476382</v>
+        <v>0.99987058688519</v>
       </c>
       <c r="D12">
-        <v>1.028962417322696</v>
+        <v>1.028730207336787</v>
       </c>
       <c r="E12">
-        <v>0.9492605915504059</v>
+        <v>1.003632810757945</v>
       </c>
       <c r="F12">
-        <v>0.8912090268062499</v>
+        <v>0.9950979518761309</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047844905527682</v>
+        <v>1.02955371971951</v>
       </c>
       <c r="J12">
-        <v>0.9648414153495264</v>
+        <v>1.006790721502815</v>
       </c>
       <c r="K12">
-        <v>1.043555011370238</v>
+        <v>1.032369811708957</v>
       </c>
       <c r="L12">
-        <v>0.9654290134301796</v>
+        <v>1.007370853485298</v>
       </c>
       <c r="M12">
-        <v>0.9087662510348528</v>
+        <v>0.9988707312407346</v>
       </c>
       <c r="N12">
-        <v>0.9917546603309014</v>
+        <v>1.006361711295728</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9321814970377231</v>
+        <v>0.9999289227360615</v>
       </c>
       <c r="D13">
-        <v>1.029063594547702</v>
+        <v>1.028748699911505</v>
       </c>
       <c r="E13">
-        <v>0.9495278534437021</v>
+        <v>1.00368233938652</v>
       </c>
       <c r="F13">
-        <v>0.8917512133647502</v>
+        <v>0.9951913535466643</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.047870236572856</v>
+        <v>1.029554088495152</v>
       </c>
       <c r="J13">
-        <v>0.9650573866561774</v>
+        <v>1.006829551690842</v>
       </c>
       <c r="K13">
-        <v>1.043612150892348</v>
+        <v>1.032378515607504</v>
       </c>
       <c r="L13">
-        <v>0.9656428616942665</v>
+        <v>1.007410183731069</v>
       </c>
       <c r="M13">
-        <v>0.9092420325382389</v>
+        <v>0.9989536515352102</v>
       </c>
       <c r="N13">
-        <v>0.9918303562730494</v>
+        <v>1.006375041600458</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9332838100880801</v>
+        <v>1.000120055795136</v>
       </c>
       <c r="D14">
-        <v>1.029394354529479</v>
+        <v>1.028809277633772</v>
       </c>
       <c r="E14">
-        <v>0.9504002400164225</v>
+        <v>1.003844627887068</v>
       </c>
       <c r="F14">
-        <v>0.893518510110244</v>
+        <v>0.9954973625354055</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04795266202253</v>
+        <v>1.029555240040407</v>
       </c>
       <c r="J14">
-        <v>0.9657619451119196</v>
+        <v>1.006956758827764</v>
       </c>
       <c r="K14">
-        <v>1.043798710702484</v>
+        <v>1.032406995397466</v>
       </c>
       <c r="L14">
-        <v>0.9663406315248364</v>
+        <v>1.007539036944252</v>
       </c>
       <c r="M14">
-        <v>0.9107928662969849</v>
+        <v>0.9992253058768764</v>
       </c>
       <c r="N14">
-        <v>0.9920772962376159</v>
+        <v>1.006418705282296</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9339594978170854</v>
+        <v>1.000237812589679</v>
       </c>
       <c r="D15">
-        <v>1.029597570092012</v>
+        <v>1.028846590368057</v>
       </c>
       <c r="E15">
-        <v>0.9509352372330094</v>
+        <v>1.003944622492043</v>
       </c>
       <c r="F15">
-        <v>0.8946004490367293</v>
+        <v>0.9956858831607941</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048003008315739</v>
+        <v>1.029555906069241</v>
       </c>
       <c r="J15">
-        <v>0.966193711561523</v>
+        <v>1.007035117889274</v>
       </c>
       <c r="K15">
-        <v>1.043913150207113</v>
+        <v>1.032424512714591</v>
       </c>
       <c r="L15">
-        <v>0.9667683417611846</v>
+        <v>1.007618416018253</v>
       </c>
       <c r="M15">
-        <v>0.9117422759821919</v>
+        <v>0.9993926505345242</v>
       </c>
       <c r="N15">
-        <v>0.9922286241107074</v>
+        <v>1.006445597173323</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9378407724387507</v>
+        <v>1.000923109737314</v>
       </c>
       <c r="D16">
-        <v>1.030771612411838</v>
+        <v>1.029063593663635</v>
       </c>
       <c r="E16">
-        <v>0.9540120283963394</v>
+        <v>1.004526686116763</v>
       </c>
       <c r="F16">
-        <v>0.9007957944123277</v>
+        <v>0.9967828335567679</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048289357867212</v>
+        <v>1.029559117975007</v>
       </c>
       <c r="J16">
-        <v>0.9686722327538855</v>
+        <v>1.007490936651406</v>
       </c>
       <c r="K16">
-        <v>1.044571533557892</v>
+        <v>1.032526011298701</v>
       </c>
       <c r="L16">
-        <v>0.9692251118085194</v>
+        <v>1.008080260149639</v>
       </c>
       <c r="M16">
-        <v>0.9171784877944084</v>
+        <v>1.000366210124534</v>
       </c>
       <c r="N16">
-        <v>0.9930972651190643</v>
+        <v>1.006601955966833</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9402317484861816</v>
+        <v>1.001352894509748</v>
       </c>
       <c r="D17">
-        <v>1.031500389288461</v>
+        <v>1.029199559676678</v>
       </c>
       <c r="E17">
-        <v>0.9559105476525896</v>
+        <v>1.00489184635577</v>
       </c>
       <c r="F17">
-        <v>0.9045963630360887</v>
+        <v>0.997470648322167</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.048463099425806</v>
+        <v>1.029560546404202</v>
       </c>
       <c r="J17">
-        <v>0.970197664809425</v>
+        <v>1.007776628254542</v>
       </c>
       <c r="K17">
-        <v>1.044977760623806</v>
+        <v>1.032589272239751</v>
       </c>
       <c r="L17">
-        <v>0.9707384608976295</v>
+        <v>1.00836980892789</v>
       </c>
       <c r="M17">
-        <v>0.9205130491138687</v>
+        <v>1.000976502807035</v>
       </c>
       <c r="N17">
-        <v>0.993631817237818</v>
+        <v>1.006699892041016</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9416112877841711</v>
+        <v>1.00160355141928</v>
       </c>
       <c r="D18">
-        <v>1.031922726886212</v>
+        <v>1.029278809869972</v>
       </c>
       <c r="E18">
-        <v>0.9570070423621527</v>
+        <v>1.005104855702431</v>
       </c>
       <c r="F18">
-        <v>0.9067839005640491</v>
+        <v>0.9978717443451044</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.04856232629233</v>
+        <v>1.029561167926103</v>
       </c>
       <c r="J18">
-        <v>0.9710773036090241</v>
+        <v>1.007943184624868</v>
       </c>
       <c r="K18">
-        <v>1.045212280040764</v>
+        <v>1.032626024211051</v>
       </c>
       <c r="L18">
-        <v>0.9716115863847541</v>
+        <v>1.008538642982987</v>
       </c>
       <c r="M18">
-        <v>0.9224322143961037</v>
+        <v>1.001332336979295</v>
       </c>
       <c r="N18">
-        <v>0.9939400349889163</v>
+        <v>1.006756964900417</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.942079176676888</v>
+        <v>1.001689014075675</v>
       </c>
       <c r="D19">
-        <v>1.032066269069294</v>
+        <v>1.029305822478735</v>
       </c>
       <c r="E19">
-        <v>0.9573791150827973</v>
+        <v>1.005177489416966</v>
       </c>
       <c r="F19">
-        <v>0.9075249712570824</v>
+        <v>0.9980084920162302</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.048595802006759</v>
+        <v>1.029561343914426</v>
       </c>
       <c r="J19">
-        <v>0.9713755600990768</v>
+        <v>1.007999962080195</v>
       </c>
       <c r="K19">
-        <v>1.045291834544302</v>
+        <v>1.032638530682611</v>
       </c>
       <c r="L19">
-        <v>0.9719077101529852</v>
+        <v>1.008596201784786</v>
       </c>
       <c r="M19">
-        <v>0.923082340769418</v>
+        <v>1.001453643932613</v>
       </c>
       <c r="N19">
-        <v>0.9940445353616925</v>
+        <v>1.006776416535688</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9399767930007873</v>
+        <v>1.001306785723031</v>
       </c>
       <c r="D20">
-        <v>1.031422482822579</v>
+        <v>1.029184977633886</v>
       </c>
       <c r="E20">
-        <v>0.9557079898553139</v>
+        <v>1.004852666315862</v>
       </c>
       <c r="F20">
-        <v>0.9041916596615612</v>
+        <v>0.9973968621890754</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.048444677328424</v>
+        <v>1.029560415031944</v>
       </c>
       <c r="J20">
-        <v>0.9700350565044009</v>
+        <v>1.007745984820907</v>
       </c>
       <c r="K20">
-        <v>1.044934427455083</v>
+        <v>1.032582500137955</v>
       </c>
       <c r="L20">
-        <v>0.9705770930920495</v>
+        <v>1.008338748771612</v>
       </c>
       <c r="M20">
-        <v>0.9201579830381097</v>
+        <v>1.000911038655298</v>
       </c>
       <c r="N20">
-        <v>0.9935748379898327</v>
+        <v>1.006689389768212</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.932959936233718</v>
+        <v>1.000063773251871</v>
       </c>
       <c r="D21">
-        <v>1.029297074179585</v>
+        <v>1.02879144133297</v>
       </c>
       <c r="E21">
-        <v>0.950143869507753</v>
+        <v>1.003796837283646</v>
       </c>
       <c r="F21">
-        <v>0.8929995435326207</v>
+        <v>0.9954072550388525</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047928481211587</v>
+        <v>1.029554909994162</v>
       </c>
       <c r="J21">
-        <v>0.9655549594400541</v>
+        <v>1.006919303136536</v>
       </c>
       <c r="K21">
-        <v>1.043743878990856</v>
+        <v>1.032398615060048</v>
       </c>
       <c r="L21">
-        <v>0.9661356184022898</v>
+        <v>1.007501095313476</v>
       </c>
       <c r="M21">
-        <v>0.9103374660523216</v>
+        <v>0.9991453168265775</v>
       </c>
       <c r="N21">
-        <v>0.9920047503033089</v>
+        <v>1.006405849655614</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9283977269170242</v>
+        <v>0.9992819567113377</v>
       </c>
       <c r="D22">
-        <v>1.027935616601712</v>
+        <v>1.0285435183423</v>
       </c>
       <c r="E22">
-        <v>0.9465371257653151</v>
+        <v>1.003133141372291</v>
       </c>
       <c r="F22">
-        <v>0.8856631930077684</v>
+        <v>0.9941553759467042</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047584783462657</v>
+        <v>1.029549549582982</v>
       </c>
       <c r="J22">
-        <v>0.9626372899826152</v>
+        <v>1.006398775255053</v>
       </c>
       <c r="K22">
-        <v>1.04297325966296</v>
+        <v>1.032281686918611</v>
       </c>
       <c r="L22">
-        <v>0.9632476826143532</v>
+        <v>1.006973922460185</v>
       </c>
       <c r="M22">
-        <v>0.9038996218186307</v>
+        <v>0.9980338120025594</v>
       </c>
       <c r="N22">
-        <v>0.9909821383012312</v>
+        <v>1.006227108057501</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9308312634639995</v>
+        <v>0.9996964405381674</v>
       </c>
       <c r="D23">
-        <v>1.028659752490994</v>
+        <v>1.028674992704325</v>
       </c>
       <c r="E23">
-        <v>0.9484599413373763</v>
+        <v>1.003484965928803</v>
       </c>
       <c r="F23">
-        <v>0.8895826079053326</v>
+        <v>0.9948191132268769</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047768804063363</v>
+        <v>1.029552570889779</v>
       </c>
       <c r="J23">
-        <v>0.9641940694669813</v>
+        <v>1.006674789740152</v>
       </c>
       <c r="K23">
-        <v>1.043383882872786</v>
+        <v>1.032343796520245</v>
       </c>
       <c r="L23">
-        <v>0.9647881493154242</v>
+        <v>1.007253435431472</v>
       </c>
       <c r="M23">
-        <v>0.9073390238705025</v>
+        <v>0.9986231708395156</v>
       </c>
       <c r="N23">
-        <v>0.9915277712517893</v>
+        <v>1.006321906973569</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9400920428482041</v>
+        <v>1.001327620389373</v>
       </c>
       <c r="D24">
-        <v>1.031457693882518</v>
+        <v>1.029191566806252</v>
       </c>
       <c r="E24">
-        <v>0.9557995505175246</v>
+        <v>1.004870370035164</v>
       </c>
       <c r="F24">
-        <v>0.9043746177757983</v>
+        <v>0.9974302032580508</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.048453008012139</v>
+        <v>1.029560475047558</v>
       </c>
       <c r="J24">
-        <v>0.9701085633702363</v>
+        <v>1.007759831525004</v>
       </c>
       <c r="K24">
-        <v>1.044954015343838</v>
+        <v>1.032585560613934</v>
       </c>
       <c r="L24">
-        <v>0.9706500377845866</v>
+        <v>1.008352783688695</v>
       </c>
       <c r="M24">
-        <v>0.9203185016103148</v>
+        <v>1.000940619516847</v>
       </c>
       <c r="N24">
-        <v>0.9936005954812364</v>
+        <v>1.006694135452648</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9502525922026219</v>
+        <v>1.003219376118636</v>
       </c>
       <c r="D25">
-        <v>1.0345970248035</v>
+        <v>1.029788797171083</v>
       </c>
       <c r="E25">
-        <v>0.9638937688994601</v>
+        <v>1.006478749260445</v>
       </c>
       <c r="F25">
-        <v>0.9204038941932776</v>
+        <v>1.000456554253951</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049164116523449</v>
+        <v>1.029561340424493</v>
       </c>
       <c r="J25">
-        <v>0.9765785177966975</v>
+        <v>1.009015725207216</v>
       </c>
       <c r="K25">
-        <v>1.046680998318037</v>
+        <v>1.032860338570589</v>
       </c>
       <c r="L25">
-        <v>0.9770797006583634</v>
+        <v>1.009626370872034</v>
       </c>
       <c r="M25">
-        <v>0.9343777708368862</v>
+        <v>1.0036244642001</v>
       </c>
       <c r="N25">
-        <v>0.9958668151910696</v>
+        <v>1.007124063766357</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_190/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_190/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.004727430580851</v>
+        <v>0.9579485478811427</v>
       </c>
       <c r="D2">
-        <v>1.030263256528299</v>
+        <v>1.03701617855195</v>
       </c>
       <c r="E2">
-        <v>1.007762213487518</v>
+        <v>0.9700542965998484</v>
       </c>
       <c r="F2">
-        <v>1.002867825820396</v>
+        <v>0.9324254259529806</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.02955528997503</v>
+        <v>1.04966493641165</v>
       </c>
       <c r="J2">
-        <v>1.010014891386621</v>
+        <v>0.9814641205734458</v>
       </c>
       <c r="K2">
-        <v>1.033074774661431</v>
+        <v>1.047982825807516</v>
       </c>
       <c r="L2">
-        <v>1.010640516912302</v>
+        <v>0.9819472117454193</v>
       </c>
       <c r="M2">
-        <v>1.005761089072324</v>
+        <v>0.9449139967932568</v>
       </c>
       <c r="N2">
-        <v>1.007465362557762</v>
+        <v>0.9975761866928806</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.005822002272901</v>
+        <v>0.9633269577642327</v>
       </c>
       <c r="D3">
-        <v>1.030606612076188</v>
+        <v>1.038724435454634</v>
       </c>
       <c r="E3">
-        <v>1.008694518224989</v>
+        <v>0.9743752803874035</v>
       </c>
       <c r="F3">
-        <v>1.004617363073518</v>
+        <v>0.9407736036627249</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.029546965970127</v>
+        <v>1.049990288268154</v>
       </c>
       <c r="J3">
-        <v>1.010738946473879</v>
+        <v>0.9848698693453305</v>
       </c>
       <c r="K3">
-        <v>1.033227698754684</v>
+        <v>1.04888469248286</v>
       </c>
       <c r="L3">
-        <v>1.01137594559515</v>
+        <v>0.9853468848820135</v>
       </c>
       <c r="M3">
-        <v>1.007310333110168</v>
+        <v>0.9522249147171993</v>
       </c>
       <c r="N3">
-        <v>1.007712251451404</v>
+        <v>0.9987662937553543</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.006530092566826</v>
+        <v>0.9667180242602881</v>
       </c>
       <c r="D4">
-        <v>1.030828240658591</v>
+        <v>1.039807736879433</v>
       </c>
       <c r="E4">
-        <v>1.009297975763954</v>
+        <v>0.9771064133042652</v>
       </c>
       <c r="F4">
-        <v>1.005748917304874</v>
+        <v>0.9460168870968084</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.029539753632458</v>
+        <v>1.050183150691575</v>
       </c>
       <c r="J4">
-        <v>1.01120681070201</v>
+        <v>0.9870131806027863</v>
       </c>
       <c r="K4">
-        <v>1.0333253549493</v>
+        <v>1.049448332132398</v>
       </c>
       <c r="L4">
-        <v>1.011851397160795</v>
+        <v>0.9874892292024851</v>
       </c>
       <c r="M4">
-        <v>1.008311870664742</v>
+        <v>0.9568136768748501</v>
       </c>
       <c r="N4">
-        <v>1.007871580600961</v>
+        <v>0.9995144411480156</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.006827735276856</v>
+        <v>0.9681233544498591</v>
       </c>
       <c r="D5">
-        <v>1.030921280219724</v>
+        <v>1.04025791513086</v>
       </c>
       <c r="E5">
-        <v>1.009551717083347</v>
+        <v>0.9782398134791523</v>
       </c>
       <c r="F5">
-        <v>1.006224509550559</v>
+        <v>0.9481855499103404</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.029536283262584</v>
+        <v>1.050260008368905</v>
       </c>
       <c r="J5">
-        <v>1.011403347421962</v>
+        <v>0.9879004498249215</v>
       </c>
       <c r="K5">
-        <v>1.033366097555123</v>
+        <v>1.049680534409773</v>
       </c>
       <c r="L5">
-        <v>1.012051177842443</v>
+        <v>0.9883767614277503</v>
       </c>
       <c r="M5">
-        <v>1.008732703681971</v>
+        <v>0.9587108462610917</v>
       </c>
       <c r="N5">
-        <v>1.007938461346076</v>
+        <v>0.999823940280603</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.006877708613519</v>
+        <v>0.9683581560840535</v>
       </c>
       <c r="D6">
-        <v>1.030936894093018</v>
+        <v>1.040333195749662</v>
       </c>
       <c r="E6">
-        <v>1.00959432420678</v>
+        <v>0.9784292711889745</v>
       </c>
       <c r="F6">
-        <v>1.006304357228488</v>
+        <v>0.9485476538046037</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.029535674837201</v>
+        <v>1.050272665724133</v>
       </c>
       <c r="J6">
-        <v>1.011436337855459</v>
+        <v>0.9880486372856182</v>
       </c>
       <c r="K6">
-        <v>1.033372920065691</v>
+        <v>1.049719244074493</v>
       </c>
       <c r="L6">
-        <v>1.012084716123469</v>
+        <v>0.9885250312108023</v>
       </c>
       <c r="M6">
-        <v>1.008803351132689</v>
+        <v>0.9590275715264018</v>
       </c>
       <c r="N6">
-        <v>1.007949684992606</v>
+        <v>0.9998756183614799</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.006534069831341</v>
+        <v>0.9667368806688124</v>
       </c>
       <c r="D7">
-        <v>1.030829484383945</v>
+        <v>1.039813772728469</v>
       </c>
       <c r="E7">
-        <v>1.009301366078558</v>
+        <v>0.9771216149270426</v>
       </c>
       <c r="F7">
-        <v>1.005755272624287</v>
+        <v>0.9460460018697394</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.029539708984861</v>
+        <v>1.050184194246958</v>
       </c>
       <c r="J7">
-        <v>1.01120943743596</v>
+        <v>0.987025089606449</v>
       </c>
       <c r="K7">
-        <v>1.033325900582478</v>
+        <v>1.049451453476574</v>
       </c>
       <c r="L7">
-        <v>1.011854067027955</v>
+        <v>0.987501139139946</v>
       </c>
       <c r="M7">
-        <v>1.008317494683953</v>
+        <v>0.9568391499295096</v>
       </c>
       <c r="N7">
-        <v>1.007872474662037</v>
+        <v>0.9995185961346696</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.005097383039582</v>
+        <v>0.9597853264300786</v>
       </c>
       <c r="D8">
-        <v>1.030379406564799</v>
+        <v>1.03759808224953</v>
       </c>
       <c r="E8">
-        <v>1.008077250859506</v>
+        <v>0.9715284891839456</v>
       </c>
       <c r="F8">
-        <v>1.003459202297312</v>
+        <v>0.9352810384625577</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.02955285428455</v>
+        <v>1.049778551927296</v>
       </c>
       <c r="J8">
-        <v>1.010259724350782</v>
+        <v>0.9826280558903957</v>
       </c>
       <c r="K8">
-        <v>1.033126723317437</v>
+        <v>1.048291754076944</v>
       </c>
       <c r="L8">
-        <v>1.010889146272544</v>
+        <v>0.983108454518182</v>
       </c>
       <c r="M8">
-        <v>1.006284860424486</v>
+        <v>0.9474154113007932</v>
       </c>
       <c r="N8">
-        <v>1.00754888794167</v>
+        <v>0.9979830733841404</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.002564339795591</v>
+        <v>0.946800786925452</v>
       </c>
       <c r="D9">
-        <v>1.029582245551909</v>
+        <v>1.03352302800109</v>
       </c>
       <c r="E9">
-        <v>1.005921629741186</v>
+        <v>0.9611390090764103</v>
       </c>
       <c r="F9">
-        <v>0.9994088644037524</v>
+        <v>0.9149797869050237</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.029562081003761</v>
+        <v>1.048928137280377</v>
       </c>
       <c r="J9">
-        <v>1.008581170752679</v>
+        <v>0.9743828972372874</v>
       </c>
       <c r="K9">
-        <v>1.032765901988229</v>
+        <v>1.046094662550544</v>
       </c>
       <c r="L9">
-        <v>1.009185553564632</v>
+        <v>0.9748957002994553</v>
       </c>
       <c r="M9">
-        <v>1.002695617146474</v>
+        <v>0.9296213473758316</v>
       </c>
       <c r="N9">
-        <v>1.00697541805312</v>
+        <v>0.9950980039690245</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.000874535888566</v>
+        <v>0.937568483016368</v>
       </c>
       <c r="D10">
-        <v>1.029048220613477</v>
+        <v>1.030688880812372</v>
       </c>
       <c r="E10">
-        <v>1.004485421829613</v>
+        <v>0.9537959726989973</v>
       </c>
       <c r="F10">
-        <v>0.9967050907846262</v>
+        <v>0.9003622216808123</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.029558927936093</v>
+        <v>1.04826943707582</v>
       </c>
       <c r="J10">
-        <v>1.007458639509106</v>
+        <v>0.9684984444397381</v>
       </c>
       <c r="K10">
-        <v>1.032518842347417</v>
+        <v>1.044525297024521</v>
       </c>
       <c r="L10">
-        <v>1.008047530887223</v>
+        <v>0.9690527632806326</v>
       </c>
       <c r="M10">
-        <v>1.000297222101511</v>
+        <v>0.9167980599729705</v>
       </c>
       <c r="N10">
-        <v>1.006590881253872</v>
+        <v>0.9930363614252332</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.000142534010965</v>
+        <v>0.9334129918157615</v>
       </c>
       <c r="D11">
-        <v>1.028816400681362</v>
+        <v>1.029433179004556</v>
       </c>
       <c r="E11">
-        <v>1.003863715011103</v>
+        <v>0.9505025091571975</v>
       </c>
       <c r="F11">
-        <v>0.995533349279506</v>
+        <v>0.893725440921452</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029555369739793</v>
+        <v>1.047962298172288</v>
       </c>
       <c r="J11">
-        <v>1.006971717307854</v>
+        <v>0.9658444990194034</v>
       </c>
       <c r="K11">
-        <v>1.032410340936442</v>
+        <v>1.043820585154409</v>
       </c>
       <c r="L11">
-        <v>1.007554189785336</v>
+        <v>0.9664224037695215</v>
       </c>
       <c r="M11">
-        <v>0.999257251006217</v>
+        <v>0.9109744503736822</v>
       </c>
       <c r="N11">
-        <v>1.006423839134035</v>
+        <v>0.9921062302914593</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.99987058688519</v>
+        <v>0.9318436687476379</v>
       </c>
       <c r="D12">
-        <v>1.028730207336787</v>
+        <v>1.028962417322696</v>
       </c>
       <c r="E12">
-        <v>1.003632810757945</v>
+        <v>0.9492605915504053</v>
       </c>
       <c r="F12">
-        <v>0.9950979518761309</v>
+        <v>0.8912090268062498</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.02955371971951</v>
+        <v>1.047844905527682</v>
       </c>
       <c r="J12">
-        <v>1.006790721502815</v>
+        <v>0.9648414153495261</v>
       </c>
       <c r="K12">
-        <v>1.032369811708957</v>
+        <v>1.043555011370238</v>
       </c>
       <c r="L12">
-        <v>1.007370853485298</v>
+        <v>0.9654290134301791</v>
       </c>
       <c r="M12">
-        <v>0.9988707312407346</v>
+        <v>0.9087662510348526</v>
       </c>
       <c r="N12">
-        <v>1.006361711295728</v>
+        <v>0.9917546603309013</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9999289227360615</v>
+        <v>0.9321814970377228</v>
       </c>
       <c r="D13">
-        <v>1.028748699911505</v>
+        <v>1.029063594547702</v>
       </c>
       <c r="E13">
-        <v>1.00368233938652</v>
+        <v>0.9495278534437012</v>
       </c>
       <c r="F13">
-        <v>0.9951913535466643</v>
+        <v>0.8917512133647498</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.029554088495152</v>
+        <v>1.047870236572856</v>
       </c>
       <c r="J13">
-        <v>1.006829551690842</v>
+        <v>0.9650573866561769</v>
       </c>
       <c r="K13">
-        <v>1.032378515607504</v>
+        <v>1.043612150892348</v>
       </c>
       <c r="L13">
-        <v>1.007410183731069</v>
+        <v>0.9656428616942656</v>
       </c>
       <c r="M13">
-        <v>0.9989536515352102</v>
+        <v>0.9092420325382387</v>
       </c>
       <c r="N13">
-        <v>1.006375041600458</v>
+        <v>0.9918303562730492</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.000120055795136</v>
+        <v>0.9332838100880801</v>
       </c>
       <c r="D14">
-        <v>1.028809277633772</v>
+        <v>1.029394354529478</v>
       </c>
       <c r="E14">
-        <v>1.003844627887068</v>
+        <v>0.9504002400164222</v>
       </c>
       <c r="F14">
-        <v>0.9954973625354055</v>
+        <v>0.8935185101102435</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029555240040407</v>
+        <v>1.047952662022529</v>
       </c>
       <c r="J14">
-        <v>1.006956758827764</v>
+        <v>0.9657619451119195</v>
       </c>
       <c r="K14">
-        <v>1.032406995397466</v>
+        <v>1.043798710702483</v>
       </c>
       <c r="L14">
-        <v>1.007539036944252</v>
+        <v>0.9663406315248364</v>
       </c>
       <c r="M14">
-        <v>0.9992253058768764</v>
+        <v>0.9107928662969845</v>
       </c>
       <c r="N14">
-        <v>1.006418705282296</v>
+        <v>0.9920772962376159</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.000237812589679</v>
+        <v>0.9339594978170854</v>
       </c>
       <c r="D15">
-        <v>1.028846590368057</v>
+        <v>1.029597570092013</v>
       </c>
       <c r="E15">
-        <v>1.003944622492043</v>
+        <v>0.9509352372330097</v>
       </c>
       <c r="F15">
-        <v>0.9956858831607941</v>
+        <v>0.8946004490367299</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029555906069241</v>
+        <v>1.04800300831574</v>
       </c>
       <c r="J15">
-        <v>1.007035117889274</v>
+        <v>0.9661937115615231</v>
       </c>
       <c r="K15">
-        <v>1.032424512714591</v>
+        <v>1.043913150207114</v>
       </c>
       <c r="L15">
-        <v>1.007618416018253</v>
+        <v>0.9667683417611845</v>
       </c>
       <c r="M15">
-        <v>0.9993926505345242</v>
+        <v>0.911742275982192</v>
       </c>
       <c r="N15">
-        <v>1.006445597173323</v>
+        <v>0.9922286241107073</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000923109737314</v>
+        <v>0.937840772438751</v>
       </c>
       <c r="D16">
-        <v>1.029063593663635</v>
+        <v>1.030771612411838</v>
       </c>
       <c r="E16">
-        <v>1.004526686116763</v>
+        <v>0.9540120283963391</v>
       </c>
       <c r="F16">
-        <v>0.9967828335567679</v>
+        <v>0.9007957944123274</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.029559117975007</v>
+        <v>1.048289357867212</v>
       </c>
       <c r="J16">
-        <v>1.007490936651406</v>
+        <v>0.9686722327538856</v>
       </c>
       <c r="K16">
-        <v>1.032526011298701</v>
+        <v>1.044571533557892</v>
       </c>
       <c r="L16">
-        <v>1.008080260149639</v>
+        <v>0.9692251118085194</v>
       </c>
       <c r="M16">
-        <v>1.000366210124534</v>
+        <v>0.9171784877944081</v>
       </c>
       <c r="N16">
-        <v>1.006601955966833</v>
+        <v>0.9930972651190644</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.001352894509748</v>
+        <v>0.9402317484861817</v>
       </c>
       <c r="D17">
-        <v>1.029199559676678</v>
+        <v>1.03150038928846</v>
       </c>
       <c r="E17">
-        <v>1.00489184635577</v>
+        <v>0.9559105476525894</v>
       </c>
       <c r="F17">
-        <v>0.997470648322167</v>
+        <v>0.9045963630360891</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.029560546404202</v>
+        <v>1.048463099425805</v>
       </c>
       <c r="J17">
-        <v>1.007776628254542</v>
+        <v>0.9701976648094255</v>
       </c>
       <c r="K17">
-        <v>1.032589272239751</v>
+        <v>1.044977760623805</v>
       </c>
       <c r="L17">
-        <v>1.00836980892789</v>
+        <v>0.9707384608976295</v>
       </c>
       <c r="M17">
-        <v>1.000976502807035</v>
+        <v>0.9205130491138692</v>
       </c>
       <c r="N17">
-        <v>1.006699892041016</v>
+        <v>0.9936318172378182</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.00160355141928</v>
+        <v>0.9416112877841714</v>
       </c>
       <c r="D18">
-        <v>1.029278809869972</v>
+        <v>1.031922726886212</v>
       </c>
       <c r="E18">
-        <v>1.005104855702431</v>
+        <v>0.9570070423621526</v>
       </c>
       <c r="F18">
-        <v>0.9978717443451044</v>
+        <v>0.9067839005640493</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.029561167926103</v>
+        <v>1.04856232629233</v>
       </c>
       <c r="J18">
-        <v>1.007943184624868</v>
+        <v>0.9710773036090241</v>
       </c>
       <c r="K18">
-        <v>1.032626024211051</v>
+        <v>1.045212280040765</v>
       </c>
       <c r="L18">
-        <v>1.008538642982987</v>
+        <v>0.971611586384754</v>
       </c>
       <c r="M18">
-        <v>1.001332336979295</v>
+        <v>0.9224322143961038</v>
       </c>
       <c r="N18">
-        <v>1.006756964900417</v>
+        <v>0.9939400349889161</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001689014075675</v>
+        <v>0.9420791766768881</v>
       </c>
       <c r="D19">
-        <v>1.029305822478735</v>
+        <v>1.032066269069293</v>
       </c>
       <c r="E19">
-        <v>1.005177489416966</v>
+        <v>0.9573791150827974</v>
       </c>
       <c r="F19">
-        <v>0.9980084920162302</v>
+        <v>0.907524971257082</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.029561343914426</v>
+        <v>1.048595802006758</v>
       </c>
       <c r="J19">
-        <v>1.007999962080195</v>
+        <v>0.9713755600990769</v>
       </c>
       <c r="K19">
-        <v>1.032638530682611</v>
+        <v>1.045291834544301</v>
       </c>
       <c r="L19">
-        <v>1.008596201784786</v>
+        <v>0.9719077101529852</v>
       </c>
       <c r="M19">
-        <v>1.001453643932613</v>
+        <v>0.9230823407694174</v>
       </c>
       <c r="N19">
-        <v>1.006776416535688</v>
+        <v>0.9940445353616925</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001306785723031</v>
+        <v>0.9399767930007874</v>
       </c>
       <c r="D20">
-        <v>1.029184977633886</v>
+        <v>1.031422482822579</v>
       </c>
       <c r="E20">
-        <v>1.004852666315862</v>
+        <v>0.9557079898553141</v>
       </c>
       <c r="F20">
-        <v>0.9973968621890754</v>
+        <v>0.9041916596615613</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.029560415031944</v>
+        <v>1.048444677328424</v>
       </c>
       <c r="J20">
-        <v>1.007745984820907</v>
+        <v>0.9700350565044011</v>
       </c>
       <c r="K20">
-        <v>1.032582500137955</v>
+        <v>1.044934427455082</v>
       </c>
       <c r="L20">
-        <v>1.008338748771612</v>
+        <v>0.9705770930920495</v>
       </c>
       <c r="M20">
-        <v>1.000911038655298</v>
+        <v>0.92015798303811</v>
       </c>
       <c r="N20">
-        <v>1.006689389768212</v>
+        <v>0.9935748379898326</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.000063773251871</v>
+        <v>0.9329599362337181</v>
       </c>
       <c r="D21">
-        <v>1.02879144133297</v>
+        <v>1.029297074179585</v>
       </c>
       <c r="E21">
-        <v>1.003796837283646</v>
+        <v>0.950143869507753</v>
       </c>
       <c r="F21">
-        <v>0.9954072550388525</v>
+        <v>0.8929995435326209</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029554909994162</v>
+        <v>1.047928481211587</v>
       </c>
       <c r="J21">
-        <v>1.006919303136536</v>
+        <v>0.9655549594400541</v>
       </c>
       <c r="K21">
-        <v>1.032398615060048</v>
+        <v>1.043743878990856</v>
       </c>
       <c r="L21">
-        <v>1.007501095313476</v>
+        <v>0.9661356184022899</v>
       </c>
       <c r="M21">
-        <v>0.9991453168265775</v>
+        <v>0.9103374660523219</v>
       </c>
       <c r="N21">
-        <v>1.006405849655614</v>
+        <v>0.9920047503033089</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9992819567113377</v>
+        <v>0.9283977269170243</v>
       </c>
       <c r="D22">
-        <v>1.0285435183423</v>
+        <v>1.027935616601712</v>
       </c>
       <c r="E22">
-        <v>1.003133141372291</v>
+        <v>0.9465371257653151</v>
       </c>
       <c r="F22">
-        <v>0.9941553759467042</v>
+        <v>0.8856631930077691</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029549549582982</v>
+        <v>1.047584783462657</v>
       </c>
       <c r="J22">
-        <v>1.006398775255053</v>
+        <v>0.9626372899826152</v>
       </c>
       <c r="K22">
-        <v>1.032281686918611</v>
+        <v>1.04297325966296</v>
       </c>
       <c r="L22">
-        <v>1.006973922460185</v>
+        <v>0.9632476826143532</v>
       </c>
       <c r="M22">
-        <v>0.9980338120025594</v>
+        <v>0.9038996218186311</v>
       </c>
       <c r="N22">
-        <v>1.006227108057501</v>
+        <v>0.9909821383012312</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9996964405381674</v>
+        <v>0.9308312634639988</v>
       </c>
       <c r="D23">
-        <v>1.028674992704325</v>
+        <v>1.028659752490994</v>
       </c>
       <c r="E23">
-        <v>1.003484965928803</v>
+        <v>0.9484599413373758</v>
       </c>
       <c r="F23">
-        <v>0.9948191132268769</v>
+        <v>0.8895826079053324</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029552570889779</v>
+        <v>1.047768804063363</v>
       </c>
       <c r="J23">
-        <v>1.006674789740152</v>
+        <v>0.9641940694669808</v>
       </c>
       <c r="K23">
-        <v>1.032343796520245</v>
+        <v>1.043383882872786</v>
       </c>
       <c r="L23">
-        <v>1.007253435431472</v>
+        <v>0.9647881493154237</v>
       </c>
       <c r="M23">
-        <v>0.9986231708395156</v>
+        <v>0.9073390238705022</v>
       </c>
       <c r="N23">
-        <v>1.006321906973569</v>
+        <v>0.9915277712517893</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001327620389373</v>
+        <v>0.9400920428482046</v>
       </c>
       <c r="D24">
-        <v>1.029191566806252</v>
+        <v>1.031457693882518</v>
       </c>
       <c r="E24">
-        <v>1.004870370035164</v>
+        <v>0.9557995505175247</v>
       </c>
       <c r="F24">
-        <v>0.9974302032580508</v>
+        <v>0.9043746177757988</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.029560475047558</v>
+        <v>1.048453008012139</v>
       </c>
       <c r="J24">
-        <v>1.007759831525004</v>
+        <v>0.9701085633702367</v>
       </c>
       <c r="K24">
-        <v>1.032585560613934</v>
+        <v>1.044954015343838</v>
       </c>
       <c r="L24">
-        <v>1.008352783688695</v>
+        <v>0.9706500377845868</v>
       </c>
       <c r="M24">
-        <v>1.000940619516847</v>
+        <v>0.9203185016103151</v>
       </c>
       <c r="N24">
-        <v>1.006694135452648</v>
+        <v>0.9936005954812365</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.003219376118636</v>
+        <v>0.9502525922026223</v>
       </c>
       <c r="D25">
-        <v>1.029788797171083</v>
+        <v>1.034597024803501</v>
       </c>
       <c r="E25">
-        <v>1.006478749260445</v>
+        <v>0.9638937688994605</v>
       </c>
       <c r="F25">
-        <v>1.000456554253951</v>
+        <v>0.9204038941932781</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.029561340424493</v>
+        <v>1.04916411652345</v>
       </c>
       <c r="J25">
-        <v>1.009015725207216</v>
+        <v>0.9765785177966978</v>
       </c>
       <c r="K25">
-        <v>1.032860338570589</v>
+        <v>1.046680998318037</v>
       </c>
       <c r="L25">
-        <v>1.009626370872034</v>
+        <v>0.9770797006583638</v>
       </c>
       <c r="M25">
-        <v>1.0036244642001</v>
+        <v>0.9343777708368868</v>
       </c>
       <c r="N25">
-        <v>1.007124063766357</v>
+        <v>0.9958668151910697</v>
       </c>
     </row>
   </sheetData>
